--- a/sample.xlsx
+++ b/sample.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20055" windowHeight="7695"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20055" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="check" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>nagpur</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -394,7 +397,7 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,8 +407,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -415,8 +421,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -426,8 +435,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3">
+        <v>456</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -436,6 +448,9 @@
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+      <c r="D4">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -459,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20055" windowHeight="7695" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20055" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>raibag</t>
   </si>
   <si>
-    <t xml:space="preserve">koka </t>
-  </si>
-  <si>
     <t>vamshi</t>
   </si>
   <si>
@@ -55,6 +52,39 @@
   </si>
   <si>
     <t>phonenumber</t>
+  </si>
+  <si>
+    <t>koka</t>
+  </si>
+  <si>
+    <t>dushyant</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>10.138.32.76</t>
   </si>
 </sst>
 </file>
@@ -90,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,18 +417,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,11 +439,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -421,40 +459,79 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>123</v>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>456</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>789</v>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -474,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
